--- a/report2.xlsx
+++ b/report2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/colorTest.New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C875C2AA-C9F1-164A-A491-E6434A7C4E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0626A35-FE13-4A44-8A3F-958928935F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{A19690C3-B15A-F94C-ABFF-2524E8A162BC}"/>
+    <workbookView xWindow="7260" yWindow="1060" windowWidth="28040" windowHeight="17440" xr2:uid="{09DE48C3-DA98-8244-8D68-E09A77C46248}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="213">
   <si>
     <t>[PUMP:HRS:100]</t>
   </si>
@@ -618,6 +618,63 @@
   </si>
   <si>
     <t>PUMP:INS:220</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3330 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:4000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:8 </t>
+  </si>
+  <si>
+    <t>Orphan Tags</t>
+  </si>
+  <si>
+    <t>Childless Tags</t>
   </si>
 </sst>
 </file>
@@ -633,12 +690,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF964B00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -653,8 +734,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,8 +1053,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D5959F-14EB-C846-A62D-0CF9343EE43D}">
-  <dimension ref="A2:B437"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5676D52E-1815-474F-8B2E-6507B4A20CED}">
+  <dimension ref="A1:L437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -977,189 +1062,647 @@
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>210</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="L34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>31</v>
+      </c>
+      <c r="L35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>34</v>
+      </c>
+      <c r="L38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>39</v>
+      </c>
+      <c r="L43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>40</v>
+      </c>
+      <c r="L44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>41</v>
+      </c>
+      <c r="L45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>42</v>
+      </c>
+      <c r="L46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>43</v>
+      </c>
+      <c r="L47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>44</v>
+      </c>
+      <c r="L48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>46</v>
+      </c>
+      <c r="L50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>47</v>
+      </c>
+      <c r="L51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>48</v>
+      </c>
+      <c r="L52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>49</v>
+      </c>
+      <c r="L53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>50</v>
+      </c>
+      <c r="L54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>29</v>
       </c>
